--- a/sov_extract/Data/test_.xlsx
+++ b/sov_extract/Data/test_.xlsx
@@ -88,13 +88,13 @@
     <t>Acid</t>
   </si>
   <si>
-    <t>Water Bath</t>
+    <t>W</t>
   </si>
   <si>
-    <t>Pressurised liquid</t>
+    <t>P</t>
   </si>
   <si>
-    <t>Microwave assisted</t>
+    <t>M</t>
   </si>
   <si>
     <t>Measurement 1, carbs in 1 mg</t>
